--- a/static/schedule-courses/Horario 1-2024 - 2771132.xlsx
+++ b/static/schedule-courses/Horario 1-2024 - 2771132.xlsx
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G32"/>
+  <dimension ref="A2:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,16 @@
           <t>2771132</t>
         </is>
       </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Instructor titular:</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DANIEL DAVID BENAVIDES SÁNCHEZ </t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1017,22 +1027,22 @@
     <row r="29">
       <c r="A29" s="6" t="inlineStr">
         <is>
-          <t>Emprendimiento</t>
+          <t>Instalación + Manual de Usuario</t>
         </is>
       </c>
       <c r="B29" s="6" t="inlineStr">
         <is>
-          <t>Fomentar cultura emprendedora según habilidades y competencias personales.</t>
+          <t>Desarrollar la solución de software de acuerdo con el diseño y metodologías de desarrollo.</t>
         </is>
       </c>
       <c r="C29" s="6" t="inlineStr">
         <is>
-          <t>Fomentar cultura emprendedora según habilidades y competencias personales.</t>
+          <t>Desarrollo de la solución de software.</t>
         </is>
       </c>
       <c r="D29" s="6" t="inlineStr">
         <is>
-          <t>Establecer características y competencias emprendedoras personales de acuerdo con sus potencialidades, objetivos y el entorno.</t>
+          <t>Codificar el software empleando el lenguaje de programación seleccionado.</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1064,7 @@
       </c>
       <c r="D30" s="6" t="inlineStr">
         <is>
-          <t>Apropiar el proceso de toma de decisiones personales en su cotidianidad, según el comportamiento emprendedor.</t>
+          <t>Establecer características y competencias emprendedoras personales de acuerdo con sus potencialidades, objetivos y el entorno.</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1086,7 @@
       </c>
       <c r="D31" s="6" t="inlineStr">
         <is>
-          <t>Emplear capacidad creativa e innovadora según estrategia emprendedora.</t>
+          <t>Apropiar el proceso de toma de decisiones personales en su cotidianidad, según el comportamiento emprendedor.</t>
         </is>
       </c>
     </row>
@@ -1097,6 +1107,28 @@
         </is>
       </c>
       <c r="D32" s="6" t="inlineStr">
+        <is>
+          <t>Emplear capacidad creativa e innovadora según estrategia emprendedora.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>Emprendimiento</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="inlineStr">
+        <is>
+          <t>Fomentar cultura emprendedora según habilidades y competencias personales.</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>Fomentar cultura emprendedora según habilidades y competencias personales.</t>
+        </is>
+      </c>
+      <c r="D33" s="6" t="inlineStr">
         <is>
           <t>Establecer características y competencias emprendedoras personales de acuerdo con sus potencialidades, objetivos y el entorno.</t>
         </is>

--- a/static/schedule-courses/Horario 1-2024 - 2771132.xlsx
+++ b/static/schedule-courses/Horario 1-2024 - 2771132.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -172,13 +172,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -470,7 +470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1136,6 +1136,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>